--- a/data-folder/Données_groupe_15.xlsx
+++ b/data-folder/Données_groupe_15.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données15" sheetId="2" r:id="rId1"/>
@@ -476,13 +476,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>35.480000000000004</v>
+        <v>7.1800000000000006</v>
       </c>
       <c r="B14">
         <v>81</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,79 +520,79 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>72.23</v>
+        <v>31.59</v>
       </c>
       <c r="B18">
         <v>61</v>
       </c>
       <c r="C18">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>95.47</v>
+        <v>19.470000000000002</v>
       </c>
       <c r="B19">
         <v>75</v>
       </c>
       <c r="C19">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>40.64</v>
+        <v>11.21</v>
       </c>
       <c r="B20">
         <v>74</v>
       </c>
       <c r="C20">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>23.96</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="B21">
         <v>88</v>
       </c>
       <c r="C21">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>73.22999999999999</v>
+        <v>33.47</v>
       </c>
       <c r="B22">
         <v>59</v>
       </c>
       <c r="C22">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>56.32</v>
+        <v>43.230000000000004</v>
       </c>
       <c r="B23">
         <v>39</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>74.2</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="B24">
         <v>73</v>
       </c>
       <c r="C24">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,24 +608,24 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>38.97</v>
+        <v>15.8</v>
       </c>
       <c r="B26">
         <v>67</v>
       </c>
       <c r="C26">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>57.45</v>
+        <v>6.7100000000000009</v>
       </c>
       <c r="B27">
         <v>87</v>
       </c>
       <c r="C27">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,35 +652,35 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4.4400000000000004</v>
+        <v>3.42</v>
       </c>
       <c r="B30">
         <v>36</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>90.63</v>
+        <v>46.760000000000005</v>
       </c>
       <c r="B31">
         <v>54</v>
       </c>
       <c r="C31">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>42.03</v>
+        <v>27.529999999999998</v>
       </c>
       <c r="B32">
         <v>46</v>
       </c>
       <c r="C32">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,46 +696,46 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>62.629999999999995</v>
+        <v>17.66</v>
       </c>
       <c r="B34">
         <v>72</v>
       </c>
       <c r="C34">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4.96</v>
+        <v>3.95</v>
       </c>
       <c r="B35">
         <v>88</v>
       </c>
       <c r="C35">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>59.37</v>
+        <v>22.99</v>
       </c>
       <c r="B36">
         <v>67</v>
       </c>
       <c r="C36">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>19.139999999999997</v>
+        <v>14.580000000000002</v>
       </c>
       <c r="B37">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,24 +751,24 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>18.23</v>
+        <v>7.35</v>
       </c>
       <c r="B39">
         <v>74</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>84.58</v>
+        <v>72.430000000000007</v>
       </c>
       <c r="B40">
         <v>33</v>
       </c>
       <c r="C40">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,24 +784,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>60.96</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B42">
         <v>88</v>
       </c>
       <c r="C42">
-        <v>136</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>93.910000000000011</v>
+        <v>27.1</v>
       </c>
       <c r="B43">
         <v>69</v>
       </c>
       <c r="C43">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,68 +817,68 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45.050000000000004</v>
+        <v>5.09</v>
       </c>
       <c r="B45">
         <v>88</v>
       </c>
       <c r="C45">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>22.1</v>
+        <v>7.46</v>
       </c>
       <c r="B46">
         <v>71</v>
       </c>
       <c r="C46">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>70.94</v>
+        <v>47.79</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>94.58</v>
+        <v>51.29</v>
       </c>
       <c r="B48">
         <v>52</v>
       </c>
       <c r="C48">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>50.49</v>
+        <v>22.770000000000003</v>
       </c>
       <c r="B49">
         <v>61</v>
       </c>
       <c r="C49">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>22.05</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="B50">
         <v>45</v>
       </c>
       <c r="C50">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,13 +905,13 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>18.61</v>
+        <v>12.02</v>
       </c>
       <c r="B53">
         <v>57</v>
       </c>
       <c r="C53">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,35 +927,35 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>11</v>
+        <v>8.91</v>
       </c>
       <c r="B55">
         <v>57</v>
       </c>
       <c r="C55">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>51.22</v>
+        <v>5.92</v>
       </c>
       <c r="B56">
         <v>90</v>
       </c>
       <c r="C56">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>45.01</v>
+        <v>14.69</v>
       </c>
       <c r="B57">
         <v>71</v>
       </c>
       <c r="C57">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,13 +993,13 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6.03</v>
+        <v>2.97</v>
       </c>
       <c r="B61">
         <v>88</v>
       </c>
       <c r="C61">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,178 +1015,178 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13.16</v>
+        <v>10.97</v>
       </c>
       <c r="B63">
         <v>36</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>94.48</v>
+        <v>30.19</v>
       </c>
       <c r="B64">
         <v>67</v>
       </c>
       <c r="C64">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>28.07</v>
+        <v>15.06</v>
       </c>
       <c r="B65">
         <v>57</v>
       </c>
       <c r="C65">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>28.95</v>
+        <v>11.55</v>
       </c>
       <c r="B66">
         <v>70</v>
       </c>
       <c r="C66">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>12.09</v>
+        <v>4.66</v>
       </c>
       <c r="B67">
         <v>74</v>
       </c>
       <c r="C67">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>31.05</v>
+        <v>17.91</v>
       </c>
       <c r="B68">
         <v>56</v>
       </c>
       <c r="C68">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>14.48</v>
+        <v>5.9499999999999993</v>
       </c>
       <c r="B69">
         <v>74</v>
       </c>
       <c r="C69">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>36.75</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="B70">
         <v>32</v>
       </c>
       <c r="C70">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7.6899999999999995</v>
+        <v>5.62</v>
       </c>
       <c r="B71">
         <v>54</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>24.51</v>
+        <v>16.32</v>
       </c>
       <c r="B72">
         <v>51</v>
       </c>
       <c r="C72">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>64.34</v>
+        <v>47.54</v>
       </c>
       <c r="B73">
         <v>40</v>
       </c>
       <c r="C73">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>90.97</v>
+        <v>17.91</v>
       </c>
       <c r="B74">
         <v>78</v>
       </c>
       <c r="C74">
-        <v>142</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>26.08</v>
+        <v>12.23</v>
       </c>
       <c r="B75">
         <v>66</v>
       </c>
       <c r="C75">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>49.11</v>
+        <v>20.22</v>
       </c>
       <c r="B76">
         <v>63</v>
       </c>
       <c r="C76">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>25.380000000000003</v>
+        <v>11.799999999999999</v>
       </c>
       <c r="B77">
         <v>67</v>
       </c>
       <c r="C77">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>50.38</v>
+        <v>48.94</v>
       </c>
       <c r="B78">
         <v>26</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,13 +1202,13 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6.25</v>
+        <v>5.21</v>
       </c>
       <c r="B80">
         <v>43</v>
       </c>
       <c r="C80">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
